--- a/Ruben/Kaart test/TestDATA1.xlsx
+++ b/Ruben/Kaart test/TestDATA1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruben\Spyder-workspace\Integrative Practical\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruben\Spyder-workspace\Integrative Practical\Kaart test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -47,9 +47,6 @@
     <t>Demand</t>
   </si>
   <si>
-    <t>Amersfort</t>
-  </si>
-  <si>
     <t>Arnhem</t>
   </si>
   <si>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>Latitude</t>
+  </si>
+  <si>
+    <t>Amersfoort</t>
   </si>
 </sst>
 </file>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -471,10 +471,10 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
         <v>33</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -505,10 +505,10 @@
         <v>3804.556826248127</v>
       </c>
       <c r="D3">
-        <v>4.8499999999999996</v>
+        <v>4.7439999999999998</v>
       </c>
       <c r="E3">
-        <v>52.371000000000002</v>
+        <v>52.633000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -516,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1">
         <v>4546.9093777111757</v>
@@ -567,7 +567,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
         <v>4686.1004811104976</v>
@@ -584,7 +584,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1">
         <v>4593.306412177616</v>
@@ -601,7 +601,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1">
         <v>4454.1153087782941</v>
@@ -618,7 +618,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1">
         <v>3758.1597917816862</v>
@@ -635,7 +635,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1">
         <v>2923.0131713857559</v>
@@ -652,7 +652,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1">
         <v>2830.2191024528752</v>
@@ -669,7 +669,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1">
         <v>4268.5271709125318</v>
@@ -686,7 +686,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1">
         <v>2598.2339301206721</v>
@@ -703,7 +703,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1">
         <v>4454.1153087782941</v>
@@ -720,7 +720,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1">
         <v>4454.1153087782941</v>
@@ -737,7 +737,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1">
         <v>3850.9538607145669</v>
@@ -754,7 +754,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1">
         <v>2691.0279990535528</v>
@@ -771,7 +771,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1">
         <v>4778.8945500433783</v>
@@ -788,7 +788,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1">
         <v>2830.2191024528752</v>
@@ -805,7 +805,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1">
         <v>3850.9538607145669</v>
@@ -822,7 +822,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="1">
         <v>4546.9093777111757</v>
@@ -839,7 +839,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="1">
         <v>3711.7627573152449</v>
@@ -856,7 +856,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1">
         <v>4778.8945500433783</v>
@@ -873,7 +873,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1">
         <v>3758.1597917816862</v>
@@ -890,7 +890,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="1">
         <v>4500.5123432447353</v>
@@ -907,7 +907,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1">
         <v>4593.306412177616</v>
@@ -924,7 +924,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="1">
         <v>4361.3212398454134</v>
@@ -941,7 +941,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="1">
         <v>4175.7331019796511</v>
@@ -958,7 +958,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1">
         <v>3990.1449641138888</v>
@@ -975,7 +975,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1">
         <v>3340.5864815837208</v>
